--- a/res/testcase/system/user.xlsx
+++ b/res/testcase/system/user.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10950" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="21495" windowHeight="10350" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -501,10 +501,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -522,16 +522,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,35 +546,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,14 +570,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -605,30 +577,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,6 +599,58 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -652,15 +660,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -681,7 +681,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,19 +729,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,7 +807,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,36 +838,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,48 +862,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,11 +890,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -917,73 +982,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -995,10 +995,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1007,133 +1007,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3230,7 +3230,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/res/testcase/system/user.xlsx
+++ b/res/testcase/system/user.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="21495" windowHeight="10950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159">
   <si>
     <t>动作</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>选择单选按钮-value</t>
+  </si>
+  <si>
+    <t>高亮元素</t>
   </si>
   <si>
     <t>序号</t>
@@ -501,9 +504,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -1517,10 +1520,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1827,6 +1830,14 @@
       </c>
       <c r="B38" s="10" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1841,8 +1852,8 @@
   <sheetPr/>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1857,24 +1868,24 @@
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" ht="33" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -1883,253 +1894,253 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" ht="33" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" ht="33" customHeight="1" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" ht="33" customHeight="1" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F8" s="7"/>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F9" s="7"/>
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F10" s="7"/>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F11" s="7"/>
     </row>
     <row r="12" ht="33" customHeight="1" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F12" s="7"/>
     </row>
     <row r="13" ht="33" customHeight="1" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F13" s="7"/>
     </row>
     <row r="14" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" ht="33" customHeight="1" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="17" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2174,24 +2185,24 @@
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -2200,182 +2211,182 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>69</v>
@@ -2384,25 +2395,25 @@
         <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2443,24 +2454,24 @@
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -2469,182 +2480,182 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" ht="35" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" ht="35" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" ht="35" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" ht="35" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" ht="33" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" ht="33" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" ht="33" customHeight="1" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>69</v>
@@ -2653,25 +2664,25 @@
         <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" ht="33" customHeight="1" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2712,24 +2723,24 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -2738,186 +2749,186 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>69</v>
@@ -2926,24 +2937,24 @@
         <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="15" ht="26" customHeight="1" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2989,24 +3000,24 @@
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" ht="28" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -3015,169 +3026,169 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" ht="28" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" ht="28" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" ht="28" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" ht="28" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" ht="28" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>69</v>
@@ -3186,25 +3197,25 @@
         <v>69</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="14" ht="26" customHeight="1" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3229,7 +3240,7 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -3244,24 +3255,24 @@
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" ht="26" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -3270,137 +3281,137 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" ht="26" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" ht="26" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" ht="26" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" ht="26" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" ht="26" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" ht="26" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" ht="26" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" ht="26" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" ht="26" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>69</v>
@@ -3409,25 +3420,25 @@
         <v>69</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="12" ht="26" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/res/testcase/system/user.xlsx
+++ b/res/testcase/system/user.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10950" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="10365" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177">
   <si>
     <t>动作</t>
   </si>
@@ -256,7 +256,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>UserPage.系统管理</t>
+    <t>UserPage.账号管理</t>
   </si>
   <si>
     <t>15</t>
@@ -298,52 +298,217 @@
     <t>6</t>
   </si>
   <si>
+    <t>点击创建用户</t>
+  </si>
+  <si>
+    <t>UserPage.创建用户</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>输入用户名称</t>
   </si>
   <si>
+    <t>UserPage.登录账号</t>
+  </si>
+  <si>
+    <t>UIauto</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>输入用户密码</t>
+  </si>
+  <si>
+    <t>UserPage.登录密码</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>输入确认密码</t>
+  </si>
+  <si>
+    <t>UserPage.确认密码</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>输入用户昵称</t>
+  </si>
+  <si>
     <t>UserPage.用户名称</t>
   </si>
   <si>
-    <t>UIauto</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>输入用户密码</t>
-  </si>
-  <si>
-    <t>UserPage.用户密码</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>输入确认密码</t>
-  </si>
-  <si>
-    <t>UserPage.确认密码</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>输入用户昵称</t>
-  </si>
-  <si>
-    <t>UserPage.用户昵称</t>
-  </si>
-  <si>
     <t>UI用户</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>输入手机号码</t>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2新增用户界面</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>点击设置角色</t>
+  </si>
+  <si>
+    <t>UserPage.设置角色列</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>勾选角色</t>
+  </si>
+  <si>
+    <t>UserPage.角色列表</t>
+  </si>
+  <si>
+    <t>车场管理员</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>3新增用户角色选择界面</t>
+  </si>
+  <si>
+    <t>点击绑定分组</t>
+  </si>
+  <si>
+    <t>UserPage.绑定分组</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>勾选停车场</t>
+  </si>
+  <si>
+    <t>UserPage.停车场列表</t>
+  </si>
+  <si>
+    <t>autotest</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>2新增用户停车场选择界面</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>保存</t>
+  </si>
+  <si>
+    <t>UserPage.完成</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>操作成功</t>
+  </si>
+  <si>
+    <t>UserPage.操作成功-提示</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>3保存后截图</t>
+  </si>
+  <si>
+    <t>输入用户名</t>
+  </si>
+  <si>
+    <t>UserPage.搜索框</t>
+  </si>
+  <si>
+    <t>点击查询</t>
+  </si>
+  <si>
+    <t>UserPage.搜索按钮</t>
+  </si>
+  <si>
+    <t>2用户管理查询界面</t>
+  </si>
+  <si>
+    <t>UserPage.设置角色</t>
+  </si>
+  <si>
+    <t>勾选全部选项</t>
+  </si>
+  <si>
+    <t>UserPage.勾选全部选项</t>
+  </si>
+  <si>
+    <t>设置全部选项</t>
+  </si>
+  <si>
+    <t>UserPage.设置全部选项</t>
+  </si>
+  <si>
+    <t>3设置角色界面</t>
+  </si>
+  <si>
+    <t>点击确认</t>
+  </si>
+  <si>
+    <t>UserPage.确认-提示</t>
+  </si>
+  <si>
+    <t>设置成功</t>
+  </si>
+  <si>
+    <t>4操作成功</t>
+  </si>
+  <si>
+    <t>点击设置车场分组</t>
+  </si>
+  <si>
+    <t>UserPage.设置车场分组</t>
+  </si>
+  <si>
+    <t>3设置车场分组界面</t>
+  </si>
+  <si>
+    <t>点击重置密码</t>
+  </si>
+  <si>
+    <t>UserPage.重置密码</t>
+  </si>
+  <si>
+    <t>UserPage.修改密码-用户密码</t>
+  </si>
+  <si>
+    <t>abcdef</t>
+  </si>
+  <si>
+    <t>UserPage.修改密码-确认密码</t>
+  </si>
+  <si>
+    <t>3重置密码界面</t>
+  </si>
+  <si>
+    <t>点击修改用户</t>
+  </si>
+  <si>
+    <t>UserPage.修改用户</t>
+  </si>
+  <si>
+    <t>更改手机号码</t>
   </si>
   <si>
     <t>UserPage.手机号码</t>
@@ -352,133 +517,22 @@
     <t>13800138000</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>输入电子邮箱</t>
+    <t>更改电子邮箱</t>
   </si>
   <si>
     <t>UserPage.电子邮箱</t>
   </si>
   <si>
-    <t>ake@163.com</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>输入地址</t>
+    <t>auto@163.com</t>
+  </si>
+  <si>
+    <t>更改地址</t>
   </si>
   <si>
     <t>UserPage.地址</t>
   </si>
   <si>
-    <t>桂城街道瀚天科技城</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>2新增用户界面</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>保存</t>
-  </si>
-  <si>
-    <t>UserPage.确认-提示</t>
-  </si>
-  <si>
-    <t>操作成功</t>
-  </si>
-  <si>
-    <t>UserPage.操作成功-提示</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>3保存后截图</t>
-  </si>
-  <si>
-    <t>输入用户名</t>
-  </si>
-  <si>
-    <t>UserPage.搜索框</t>
-  </si>
-  <si>
-    <t>点击查询</t>
-  </si>
-  <si>
-    <t>UserPage.搜索按钮</t>
-  </si>
-  <si>
-    <t>2用户管理查询界面</t>
-  </si>
-  <si>
-    <t>点击设置角色</t>
-  </si>
-  <si>
-    <t>UserPage.设置角色</t>
-  </si>
-  <si>
-    <t>勾选全部选项</t>
-  </si>
-  <si>
-    <t>UserPage.勾选全部选项</t>
-  </si>
-  <si>
-    <t>设置全部选项</t>
-  </si>
-  <si>
-    <t>UserPage.设置全部选项</t>
-  </si>
-  <si>
-    <t>3设置角色界面</t>
-  </si>
-  <si>
-    <t>点击确认</t>
-  </si>
-  <si>
-    <t>设置成功</t>
-  </si>
-  <si>
-    <t>4操作成功</t>
-  </si>
-  <si>
-    <t>点击设置车场分组</t>
-  </si>
-  <si>
-    <t>UserPage.设置车场分组</t>
-  </si>
-  <si>
-    <t>3设置车场分组界面</t>
-  </si>
-  <si>
-    <t>点击重置密码</t>
-  </si>
-  <si>
-    <t>UserPage.重置密码</t>
-  </si>
-  <si>
-    <t>abcdef</t>
-  </si>
-  <si>
-    <t>3重置密码界面</t>
-  </si>
-  <si>
-    <t>点击修改用户</t>
-  </si>
-  <si>
-    <t>UserPage.修改用户</t>
-  </si>
-  <si>
-    <t>更改用户名</t>
-  </si>
-  <si>
-    <t>UIauto修改后</t>
+    <t>瀚天科技城A3号楼</t>
   </si>
   <si>
     <t>3更改用户名界面</t>
@@ -504,10 +558,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -523,6 +577,14 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -622,14 +684,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -998,7 +1052,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1010,79 +1064,79 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1091,56 +1145,56 @@
     <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1154,6 +1208,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1241,7 +1298,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CBE9CE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1533,218 +1590,218 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:2">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:2">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="10"/>
+      <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
@@ -1812,7 +1869,7 @@
       <c r="A36" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="11" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1820,7 +1877,7 @@
       <c r="A37" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="11" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1828,7 +1885,7 @@
       <c r="A38" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1850,10 +1907,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1928,7 +1985,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="5" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>85</v>
       </c>
@@ -1957,7 +2014,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" ht="33" customHeight="1" spans="1:5">
+    <row r="7" ht="33" customHeight="1" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>91</v>
       </c>
@@ -1965,50 +2022,46 @@
         <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="2" t="s">
+    </row>
+    <row r="8" ht="33" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="8" ht="33" customHeight="1" spans="1:6">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="7"/>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
@@ -2020,141 +2073,203 @@
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>104</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" ht="33" customHeight="1" spans="1:6">
       <c r="A12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" ht="33" customHeight="1" spans="1:6">
       <c r="A13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" ht="33" customHeight="1" spans="1:6">
+      <c r="A14" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A14" s="2" t="s">
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" ht="33" customHeight="1" spans="1:6">
+      <c r="A15" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="15" ht="33" customHeight="1" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" ht="33" customHeight="1" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" ht="33" customHeight="1" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" ht="33" customHeight="1" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="D20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>126</v>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C34:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C38:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C14 C15 C16 C17 C2:C4 C10:C13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C2:C4">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:C22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C26">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23:C33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C37">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -2267,16 +2382,16 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:5">
@@ -2284,19 +2399,19 @@
         <v>91</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>86</v>
@@ -2306,21 +2421,21 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -2329,34 +2444,34 @@
         <v>102</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>86</v>
@@ -2366,27 +2481,27 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>69</v>
@@ -2395,15 +2510,15 @@
         <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>86</v>
@@ -2413,7 +2528,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2421,11 +2536,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C2:C3">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C11 C12 C13 B14 C14 C15 C5:C7 C9:C10">
       <formula1>Actions!$A$2:$A$37</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4">
-      <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2438,8 +2553,8 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="B2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2536,16 +2651,16 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" ht="35" customHeight="1" spans="1:5">
@@ -2553,19 +2668,19 @@
         <v>91</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>86</v>
@@ -2575,21 +2690,21 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -2598,34 +2713,34 @@
         <v>102</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" ht="33" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>86</v>
@@ -2635,27 +2750,27 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" ht="33" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" ht="33" customHeight="1" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>69</v>
@@ -2664,15 +2779,15 @@
         <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" ht="33" customHeight="1" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>86</v>
@@ -2682,7 +2797,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2690,11 +2805,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C2:C3">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C11 C12 C13 B14 C14 C15 C5:C7 C9:C10">
       <formula1>Actions!$A$2:$A$37</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4">
-      <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2707,8 +2822,8 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2805,16 +2920,16 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -2822,19 +2937,19 @@
         <v>91</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>86</v>
@@ -2844,21 +2959,21 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -2867,38 +2982,38 @@
         <v>102</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>97</v>
+      <c r="D10" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>101</v>
+      <c r="D11" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>86</v>
@@ -2908,27 +3023,27 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>69</v>
@@ -2937,15 +3052,15 @@
         <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" ht="26" customHeight="1" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>86</v>
@@ -2954,7 +3069,7 @@
         <v>53</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2962,11 +3077,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C39:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C10 C11 C2:C3">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9 C12 C13 B14 C14 C15 C5:C7">
       <formula1>Actions!$A$2:$A$37</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C11 C2:C4">
-      <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16:C27">
       <formula1>Actions!$A$2:$A$35</formula1>
@@ -2983,10 +3098,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3082,16 +3197,16 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:5">
@@ -3099,19 +3214,19 @@
         <v>91</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" ht="28" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>86</v>
@@ -3121,21 +3236,21 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -3144,78 +3259,112 @@
         <v>102</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" ht="28" customHeight="1" spans="1:5">
+      <c r="A14" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" ht="28" customHeight="1" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" ht="26" customHeight="1" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" ht="26" customHeight="1" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>141</v>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3223,13 +3372,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9 C11 C12 B13 C13 C14 C5:C7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C10 C2:C3 C11:C12 C17:C18">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9 C13 C14 B15 C15 C16 C5:C7">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C2:C4 C15:C16">
-      <formula1>Actions!$A$2:$A$40</formula1>
-    </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1" display="auto@163.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -3241,7 +3393,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3337,16 +3489,16 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" ht="26" customHeight="1" spans="1:5">
@@ -3354,19 +3506,19 @@
         <v>91</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" ht="26" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>86</v>
@@ -3376,21 +3528,21 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" ht="26" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -3399,19 +3551,19 @@
         <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" ht="26" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>69</v>
@@ -3420,15 +3572,15 @@
         <v>69</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" ht="26" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>86</v>
@@ -3438,7 +3590,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3446,11 +3598,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C2:C3">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9 C10 B11 C11 C12 C5:C7">
       <formula1>Actions!$A$2:$A$37</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4">
-      <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/res/testcase/system/user.xlsx
+++ b/res/testcase/system/user.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10365" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="21600" windowHeight="10365" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181">
   <si>
     <t>动作</t>
   </si>
@@ -241,6 +241,9 @@
     <t>高亮元素</t>
   </si>
   <si>
+    <t>再次登录</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -482,6 +485,15 @@
   </si>
   <si>
     <t>3设置车场分组界面</t>
+  </si>
+  <si>
+    <t>UIauto;123456</t>
+  </si>
+  <si>
+    <t>账号管理</t>
+  </si>
+  <si>
+    <t>5登录成功</t>
   </si>
   <si>
     <t>点击重置密码</t>
@@ -558,10 +570,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -587,21 +599,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -611,15 +608,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -633,9 +622,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,9 +643,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,36 +684,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -717,7 +715,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,19 +750,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,91 +774,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,7 +804,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,25 +864,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,13 +888,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,66 +959,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1036,6 +992,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1044,6 +1045,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1052,10 +1064,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1064,16 +1076,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1082,119 +1094,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1214,6 +1226,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -1298,7 +1313,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CBE9CE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1577,10 +1592,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1590,218 +1605,218 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:2">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="12" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="12"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
@@ -1869,7 +1884,7 @@
       <c r="A36" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1877,7 +1892,7 @@
       <c r="A37" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="12" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1885,7 +1900,7 @@
       <c r="A38" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1895,6 +1910,11 @@
       </c>
       <c r="B39" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1910,7 +1930,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1925,24 +1945,24 @@
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" ht="33" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -1951,311 +1971,311 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" ht="33" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" ht="33" customHeight="1" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" s="8" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" ht="33" customHeight="1" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="8"/>
+        <v>102</v>
+      </c>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="8"/>
+        <v>102</v>
+      </c>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="8"/>
+        <v>109</v>
+      </c>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" ht="33" customHeight="1" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="8"/>
+        <v>111</v>
+      </c>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" ht="33" customHeight="1" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F13" s="8"/>
+        <v>114</v>
+      </c>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" ht="33" customHeight="1" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F14" s="8"/>
+        <v>118</v>
+      </c>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" ht="33" customHeight="1" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="8"/>
+        <v>120</v>
+      </c>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" ht="33" customHeight="1" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F16" s="8"/>
+        <v>122</v>
+      </c>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" ht="33" customHeight="1" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
+        <v>126</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" s="8" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" ht="33" customHeight="1" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    </row>
+    <row r="21" s="8" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2285,7 +2305,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2300,24 +2320,24 @@
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -2326,182 +2346,182 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>69</v>
@@ -2510,25 +2530,25 @@
         <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2551,10 +2571,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="B2:D3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2569,24 +2589,24 @@
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -2595,182 +2615,182 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" ht="35" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" ht="35" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" ht="35" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" ht="35" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" ht="33" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" ht="33" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" ht="33" customHeight="1" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>69</v>
@@ -2779,25 +2799,72 @@
         <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" ht="33" customHeight="1" spans="1:5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" ht="31" customHeight="1" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" ht="29" customHeight="1" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" ht="29" customHeight="1" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2808,7 +2875,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C2:C3">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C11 C12 C13 B14 C14 C15 C5:C7 C9:C10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C11 C12 C13 B14 C14 C15 C18 C5:C7 C9:C10">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
   </dataValidations>
@@ -2822,8 +2889,8 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2838,24 +2905,24 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -2864,186 +2931,186 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>69</v>
@@ -3052,24 +3119,24 @@
         <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="15" ht="26" customHeight="1" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3101,7 +3168,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3115,24 +3182,24 @@
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" ht="28" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -3141,203 +3208,203 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" ht="28" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" ht="28" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" ht="28" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" ht="28" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" ht="28" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" ht="28" customHeight="1" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" ht="28" customHeight="1" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>69</v>
@@ -3346,25 +3413,25 @@
         <v>69</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="16" ht="26" customHeight="1" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3393,7 +3460,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3407,24 +3474,24 @@
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" ht="26" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -3433,137 +3500,137 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" ht="26" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" ht="26" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" ht="26" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" ht="26" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" ht="26" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" ht="26" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" ht="26" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" ht="26" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" ht="26" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>69</v>
@@ -3572,25 +3639,25 @@
         <v>69</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="12" ht="26" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/res/testcase/system/user.xlsx
+++ b/res/testcase/system/user.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10365" activeTab="3"/>
+    <workbookView windowWidth="21600" windowHeight="9765" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,15 @@
     <sheet name="003_setParkingGroup" sheetId="4" r:id="rId4"/>
     <sheet name="004_editPassword" sheetId="3" r:id="rId5"/>
     <sheet name="005_editUser" sheetId="6" r:id="rId6"/>
-    <sheet name="006_delUser" sheetId="7" r:id="rId7"/>
+    <sheet name="006_loginPomp" sheetId="8" r:id="rId7"/>
+    <sheet name="007_delUser" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="183">
   <si>
     <t>动作</t>
   </si>
@@ -487,9 +488,6 @@
     <t>3设置车场分组界面</t>
   </si>
   <si>
-    <t>UIauto;123456</t>
-  </si>
-  <si>
     <t>账号管理</t>
   </si>
   <si>
@@ -548,6 +546,15 @@
   </si>
   <si>
     <t>3更改用户名界面</t>
+  </si>
+  <si>
+    <t>UIauto;abcdef</t>
+  </si>
+  <si>
+    <t>1用户登录界面</t>
+  </si>
+  <si>
+    <t>UserPage.登录名</t>
   </si>
   <si>
     <t>点击删除</t>
@@ -570,10 +577,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -599,6 +606,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -608,7 +630,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -622,8 +652,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,32 +674,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,23 +692,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,21 +736,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,13 +757,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,25 +841,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,37 +883,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,31 +901,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,49 +931,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,10 +966,66 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -992,51 +1055,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1045,17 +1063,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1064,10 +1071,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1076,16 +1083,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1094,119 +1101,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1226,9 +1233,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -1605,218 +1609,218 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:2">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:2">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:2">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="12"/>
+      <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
@@ -1884,7 +1888,7 @@
       <c r="A36" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1892,7 +1896,7 @@
       <c r="A37" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1900,7 +1904,7 @@
       <c r="A38" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1929,7 +1933,7 @@
   <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -2005,7 +2009,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" s="8" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="5" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>86</v>
       </c>
@@ -2081,7 +2085,7 @@
       <c r="E9" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
@@ -2099,7 +2103,7 @@
       <c r="E10" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
@@ -2117,7 +2121,7 @@
       <c r="E11" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" ht="33" customHeight="1" spans="1:6">
       <c r="A12" s="2" t="s">
@@ -2133,7 +2137,7 @@
       <c r="E12" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" ht="33" customHeight="1" spans="1:6">
       <c r="A13" s="2" t="s">
@@ -2148,7 +2152,7 @@
       <c r="D13" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" ht="33" customHeight="1" spans="1:6">
       <c r="A14" s="2" t="s">
@@ -2166,7 +2170,7 @@
       <c r="E14" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" ht="33" customHeight="1" spans="1:6">
       <c r="A15" s="2" t="s">
@@ -2182,7 +2186,7 @@
       <c r="E15" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" ht="33" customHeight="1" spans="1:6">
       <c r="A16" s="2" t="s">
@@ -2197,7 +2201,7 @@
       <c r="D16" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" ht="33" customHeight="1" spans="1:6">
       <c r="A17" s="2" t="s">
@@ -2215,9 +2219,9 @@
       <c r="E17" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" s="8" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>127</v>
       </c>
@@ -2263,7 +2267,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" s="8" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="21" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>135</v>
       </c>
@@ -2305,7 +2309,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2571,10 +2575,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2824,47 +2828,32 @@
       <c r="A16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
+      <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="17" ht="29" customHeight="1" spans="1:5">
+    <row r="17" ht="24" customHeight="1" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="B17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="1:5">
-      <c r="A18" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2875,7 +2864,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C2:C3">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C11 C12 C13 B14 C14 C15 C18 C5:C7 C9:C10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C11 C12 C13 B14 C14 C15 C17 C5:C7 C9:C10">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
   </dataValidations>
@@ -2890,7 +2879,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3034,13 +3023,13 @@
         <v>99</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -3055,10 +3044,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3072,10 +3061,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3090,7 +3079,7 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3168,7 +3157,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3311,13 +3300,13 @@
         <v>99</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -3326,16 +3315,16 @@
         <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:5">
@@ -3343,16 +3332,16 @@
         <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
@@ -3360,16 +3349,16 @@
         <v>110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:5">
@@ -3384,7 +3373,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" ht="28" customHeight="1" spans="1:5">
@@ -3457,10 +3446,143 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="28.125" customWidth="1"/>
+    <col min="5" max="5" width="35.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" ht="26" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" ht="26" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" ht="26" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" ht="26" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" ht="26" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 B6 C6">
+      <formula1>Actions!$A$2:$A$37</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3603,13 +3725,13 @@
         <v>99</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -3618,13 +3740,13 @@
         <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -3657,7 +3779,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/res/testcase/system/user.xlsx
+++ b/res/testcase/system/user.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" activeTab="3"/>
+    <workbookView windowWidth="21600" windowHeight="9765" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="177">
   <si>
     <t>动作</t>
   </si>
@@ -521,28 +521,10 @@
     <t>更改手机号码</t>
   </si>
   <si>
-    <t>UserPage.手机号码</t>
-  </si>
-  <si>
-    <t>13800138000</t>
-  </si>
-  <si>
-    <t>更改电子邮箱</t>
-  </si>
-  <si>
-    <t>UserPage.电子邮箱</t>
-  </si>
-  <si>
-    <t>auto@163.com</t>
-  </si>
-  <si>
-    <t>更改地址</t>
-  </si>
-  <si>
-    <t>UserPage.地址</t>
-  </si>
-  <si>
-    <t>瀚天科技城A3号楼</t>
+    <t>UserPage.用户昵称</t>
+  </si>
+  <si>
+    <t>UI昵称-new</t>
   </si>
   <si>
     <t>3更改用户名界面</t>
@@ -578,9 +560,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -598,14 +580,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -615,7 +589,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,9 +610,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,23 +661,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -683,52 +709,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -736,7 +718,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -757,7 +739,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,19 +877,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,31 +901,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,97 +913,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,17 +948,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,21 +968,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1022,11 +989,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1041,25 +1006,42 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1071,10 +1053,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1083,137 +1065,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1227,9 +1209,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1609,218 +1588,218 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:2">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="10"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
@@ -1888,7 +1867,7 @@
       <c r="A36" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1896,7 +1875,7 @@
       <c r="A37" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1904,7 +1883,7 @@
       <c r="A38" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1933,8 +1912,8 @@
   <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2009,7 +1988,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="5" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>86</v>
       </c>
@@ -2079,13 +2058,13 @@
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
@@ -2097,13 +2076,13 @@
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>105</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
@@ -2115,13 +2094,13 @@
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>108</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" ht="33" customHeight="1" spans="1:6">
       <c r="A12" s="2" t="s">
@@ -2133,11 +2112,11 @@
       <c r="C12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" ht="33" customHeight="1" spans="1:6">
       <c r="A13" s="2" t="s">
@@ -2149,10 +2128,10 @@
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" ht="33" customHeight="1" spans="1:6">
       <c r="A14" s="2" t="s">
@@ -2164,13 +2143,13 @@
       <c r="C14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" ht="33" customHeight="1" spans="1:6">
       <c r="A15" s="2" t="s">
@@ -2182,11 +2161,11 @@
       <c r="C15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" ht="33" customHeight="1" spans="1:6">
       <c r="A16" s="2" t="s">
@@ -2198,10 +2177,10 @@
       <c r="C16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" ht="33" customHeight="1" spans="1:6">
       <c r="A17" s="2" t="s">
@@ -2213,15 +2192,15 @@
       <c r="C17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>125</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>127</v>
       </c>
@@ -2267,7 +2246,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="21" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>135</v>
       </c>
@@ -2577,8 +2556,8 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3043,7 +3022,7 @@
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -3060,7 +3039,7 @@
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>161</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -3154,10 +3133,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3329,97 +3308,63 @@
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>173</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" ht="26" customHeight="1" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" ht="28" customHeight="1" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" ht="28" customHeight="1" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" ht="26" customHeight="1" spans="1:5">
-      <c r="A16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3428,16 +3373,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C10 C2:C3 C11:C12 C17:C18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C10 C2:C3 C15:C16">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9 C13 C14 B15 C15 C16 C5:C7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9 C11 C12 B13 C13 C14 C5:C7">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" display="auto@163.com"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -3448,8 +3390,8 @@
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -3507,7 +3449,7 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" ht="26" customHeight="1" spans="1:5">
@@ -3539,7 +3481,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" ht="26" customHeight="1" spans="1:5">
@@ -3553,10 +3495,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3725,13 +3667,13 @@
         <v>99</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -3740,13 +3682,13 @@
         <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -3779,7 +3721,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/res/testcase/system/user.xlsx
+++ b/res/testcase/system/user.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" firstSheet="3" activeTab="6"/>
+    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="810" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="176">
   <si>
     <t>动作</t>
   </si>
@@ -347,7 +347,7 @@
     <t>输入用户昵称</t>
   </si>
   <si>
-    <t>UserPage.用户名称</t>
+    <t>UserPage.用户昵称</t>
   </si>
   <si>
     <t>UI用户</t>
@@ -519,9 +519,6 @@
   </si>
   <si>
     <t>更改手机号码</t>
-  </si>
-  <si>
-    <t>UserPage.用户昵称</t>
   </si>
   <si>
     <t>UI昵称-new</t>
@@ -559,10 +556,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -581,51 +578,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -640,14 +600,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,24 +614,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,6 +654,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -716,9 +714,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -739,7 +736,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,7 +778,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,13 +802,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,61 +868,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,7 +880,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,61 +910,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,6 +946,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -966,23 +978,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,8 +987,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1034,17 +1042,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1053,10 +1050,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1065,133 +1062,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1912,8 +1909,8 @@
   <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2288,7 +2285,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3136,7 +3133,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3300,10 +3297,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:5">
@@ -3318,7 +3315,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
@@ -3390,8 +3387,8 @@
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -3449,7 +3446,7 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" ht="26" customHeight="1" spans="1:5">
@@ -3481,7 +3478,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" ht="26" customHeight="1" spans="1:5">
@@ -3495,10 +3492,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3667,13 +3664,13 @@
         <v>99</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -3682,13 +3679,13 @@
         <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -3721,7 +3718,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/res/testcase/system/user.xlsx
+++ b/res/testcase/system/user.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="810" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="810" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="179">
   <si>
     <t>动作</t>
   </si>
@@ -245,6 +245,9 @@
     <t>再次登录</t>
   </si>
   <si>
+    <t>创建用户</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -260,6 +263,12 @@
     <t>1</t>
   </si>
   <si>
+    <t>创建用户名</t>
+  </si>
+  <si>
+    <t>用户名</t>
+  </si>
+  <si>
     <t>UserPage.账号管理</t>
   </si>
   <si>
@@ -317,7 +326,7 @@
     <t>UserPage.登录账号</t>
   </si>
   <si>
-    <t>UIauto</t>
+    <t>${001_addUser}.用户名</t>
   </si>
   <si>
     <t>8</t>
@@ -527,7 +536,7 @@
     <t>3更改用户名界面</t>
   </si>
   <si>
-    <t>UIauto;abcdef</t>
+    <t>${001_addUser}.用户名;abcdef</t>
   </si>
   <si>
     <t>1用户登录界面</t>
@@ -556,12 +565,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,18 +587,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -599,8 +599,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,33 +659,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,30 +706,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -714,8 +728,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -736,7 +751,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,25 +883,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,49 +913,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,91 +931,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,17 +960,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -971,35 +991,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1028,6 +1019,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1050,10 +1065,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1062,137 +1077,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1212,6 +1227,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1572,10 +1590,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1585,218 +1603,218 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:2">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:2">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="10"/>
+      <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
@@ -1864,7 +1882,7 @@
       <c r="A36" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="11" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1872,7 +1890,7 @@
       <c r="A37" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="11" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1880,7 +1898,7 @@
       <c r="A38" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1895,6 +1913,11 @@
     <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1907,10 +1930,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1925,67 +1948,68 @@
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="1:5">
-      <c r="A2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="2" ht="29" customHeight="1" spans="1:5">
+      <c r="A2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" ht="33" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" ht="33" customHeight="1" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>79</v>
+      <c r="E3" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" ht="33" customHeight="1" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" ht="33" customHeight="1" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>86</v>
       </c>
@@ -1993,14 +2017,13 @@
         <v>87</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" ht="33" customHeight="1" spans="1:4">
+    <row r="6" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>89</v>
       </c>
@@ -2008,9 +2031,10 @@
         <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2028,7 +2052,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" ht="33" customHeight="1" spans="1:5">
+    <row r="8" ht="33" customHeight="1" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>95</v>
       </c>
@@ -2036,50 +2060,46 @@
         <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="2" t="s">
+    </row>
+    <row r="9" ht="33" customHeight="1" spans="1:5">
+      <c r="A9" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="9" ht="33" customHeight="1" spans="1:6">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="7"/>
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
@@ -2095,40 +2115,43 @@
         <v>108</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" ht="33" customHeight="1" spans="1:6">
       <c r="A12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="E12" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="7"/>
+        <v>112</v>
+      </c>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" ht="33" customHeight="1" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" ht="33" customHeight="1" spans="1:6">
       <c r="A14" s="2" t="s">
@@ -2138,95 +2161,96 @@
         <v>116</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" ht="33" customHeight="1" spans="1:6">
       <c r="A15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="E15" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F15" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" ht="33" customHeight="1" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" ht="33" customHeight="1" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" ht="33" customHeight="1" spans="1:6">
+      <c r="A18" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" ht="33" customHeight="1" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="20" ht="33" customHeight="1" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>132</v>
       </c>
@@ -2234,42 +2258,59 @@
         <v>133</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    </row>
+    <row r="21" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="E21" s="2" t="s">
         <v>136</v>
       </c>
     </row>
+    <row r="22" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C38:C1048576">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C39:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C2:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>Actions!$A$2:$A$45</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C3:C5">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23:C27">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28:C38">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -2285,7 +2326,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2300,24 +2341,24 @@
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -2326,182 +2367,182 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>69</v>
@@ -2510,25 +2551,25 @@
         <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2554,7 +2595,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2569,24 +2610,24 @@
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -2595,182 +2636,182 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="35" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" ht="35" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" ht="35" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" ht="35" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" ht="33" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" ht="33" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" ht="33" customHeight="1" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>69</v>
@@ -2779,30 +2820,30 @@
         <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" ht="31" customHeight="1" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>36</v>
@@ -2811,25 +2852,25 @@
         <v>69</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" ht="24" customHeight="1" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2854,8 +2895,8 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2870,24 +2911,24 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -2896,186 +2937,186 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>69</v>
@@ -3084,24 +3125,24 @@
         <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" ht="26" customHeight="1" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3133,7 +3174,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3147,24 +3188,24 @@
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" ht="28" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -3173,169 +3214,169 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="28" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" ht="28" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" ht="28" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" ht="28" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" ht="28" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>69</v>
@@ -3344,25 +3385,25 @@
         <v>69</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" ht="26" customHeight="1" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3388,7 +3429,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -3402,24 +3443,24 @@
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" ht="26" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -3428,15 +3469,15 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="26" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>73</v>
@@ -3446,12 +3487,12 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" ht="26" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
@@ -3460,30 +3501,30 @@
         <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" ht="26" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" ht="26" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>36</v>
@@ -3492,10 +3533,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3521,7 +3562,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3535,24 +3576,24 @@
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" ht="26" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -3561,137 +3602,137 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="26" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" ht="26" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" ht="26" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" ht="26" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" ht="26" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" ht="26" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" ht="26" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" ht="26" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" ht="26" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>69</v>
@@ -3700,25 +3741,25 @@
         <v>69</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" ht="26" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/res/testcase/system/user.xlsx
+++ b/res/testcase/system/user.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="810" activeTab="4"/>
+    <workbookView windowWidth="21600" windowHeight="9840" tabRatio="810" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="181">
   <si>
     <t>动作</t>
   </si>
@@ -543,6 +543,12 @@
   </si>
   <si>
     <t>UserPage.登录名</t>
+  </si>
+  <si>
+    <t>点击首页</t>
+  </si>
+  <si>
+    <t>UserPage.首页</t>
   </si>
   <si>
     <t>点击删除</t>
@@ -565,10 +571,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -592,16 +598,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -617,13 +616,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -645,6 +637,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -652,45 +652,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,9 +670,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -720,17 +692,51 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -751,25 +757,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,25 +799,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,7 +835,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,85 +889,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,13 +913,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,6 +966,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -975,7 +1035,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -998,62 +1058,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1065,10 +1071,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1077,133 +1083,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2895,8 +2901,8 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3559,10 +3565,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3613,13 +3619,13 @@
         <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -3628,13 +3634,13 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -3643,31 +3649,29 @@
         <v>89</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" ht="26" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>141</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" ht="26" customHeight="1" spans="1:5">
@@ -3675,51 +3679,53 @@
         <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="8" ht="26" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2" t="s">
-        <v>144</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" ht="26" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="10" ht="26" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>176</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -3734,32 +3740,47 @@
       <c r="A11" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>69</v>
+      <c r="B11" t="s">
+        <v>178</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>136</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" ht="26" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" ht="26" customHeight="1" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>178</v>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3767,10 +3788,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9 C10 B11 C11 C12 C5:C7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C10 C11 B12 C12 C13 C6:C8">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
   </dataValidations>
